--- a/API/project_plainning.xlsx
+++ b/API/project_plainning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Fac_r_a_s_api_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1402B5-B05F-4CCD-9861-68F4B29E103C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2806EE07-1DE8-4D4F-A7AB-F3B87E227523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2F7E573C-ACB2-47D9-B620-FAC3D37A61CE}"/>
   </bookViews>
